--- a/content/doc/смещения датчиков.xlsx
+++ b/content/doc/смещения датчиков.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>grab-8</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>Проверка</t>
+  </si>
+  <si>
+    <t>grab-7</t>
+  </si>
+  <si>
+    <t>roll-6</t>
+  </si>
+  <si>
+    <t>pith-5</t>
+  </si>
+  <si>
+    <t>roll-4</t>
+  </si>
+  <si>
+    <t>yaw-3</t>
+  </si>
+  <si>
+    <t>yaw-2</t>
   </si>
 </sst>
 </file>
@@ -116,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,11 +157,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -168,6 +197,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -448,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:L6"/>
+  <dimension ref="A4:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,9 +491,10 @@
     <col min="6" max="6" width="9.140625" style="10"/>
     <col min="11" max="11" width="9.140625" style="9"/>
     <col min="12" max="12" width="9.140625" style="13"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
@@ -497,7 +529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -506,7 +538,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +546,7 @@
         <v>-521.11</v>
       </c>
       <c r="C6" s="2">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
         <v>255</v>
@@ -541,11 +573,359 @@
       </c>
       <c r="K6" s="4">
         <f>C6-H6/G6</f>
-        <v>1030.1100000000001</v>
+        <v>777.11</v>
       </c>
       <c r="L6" s="12">
         <f>H6/G6+K6</f>
-        <v>254.00000000000011</v>
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <f>(D6-K6)*G6</f>
+        <v>1944.8597500000001</v>
+      </c>
+      <c r="N6" s="1">
+        <f>(E6-K6)*G6</f>
+        <v>2894.7347500000001</v>
+      </c>
+      <c r="O6" s="1">
+        <f>M6-N6</f>
+        <v>-949.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>41.61</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>255</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-3.7250000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <f>(B7-F7)*G7</f>
+        <v>3570.0027500000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1">
+        <f>2^I7</f>
+        <v>4096</v>
+      </c>
+      <c r="K7" s="4">
+        <f>C7-H7/G7</f>
+        <v>959.39</v>
+      </c>
+      <c r="L7" s="12">
+        <f>H7/G7+K7</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <f>(D7-K7)*G7</f>
+        <v>2623.85275</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" ref="N7:N12" si="0">(E7-K7)*G7</f>
+        <v>3573.72775</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" ref="O7:O12" si="1">M7-N7</f>
+        <v>-949.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-42.15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>90</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-90</v>
+      </c>
+      <c r="F8" s="2">
+        <v>180</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-11.375</v>
+      </c>
+      <c r="H8" s="1">
+        <f>(B8-F8)*G8</f>
+        <v>2526.9562500000002</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1">
+        <f>2^I8</f>
+        <v>4096</v>
+      </c>
+      <c r="K8" s="4">
+        <f>C8-H8/G8</f>
+        <v>222.15</v>
+      </c>
+      <c r="L8" s="12">
+        <f>H8/G8+K8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <f>(D8-K8)*G8</f>
+        <v>1503.20625</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>3550.7062499999997</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
+        <v>-2047.4999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-93.7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>80</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-95</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-190.9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>22.765999999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <f>(B9-F9)*G9</f>
+        <v>2212.8552</v>
+      </c>
+      <c r="I9" s="1">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1">
+        <f>2^I9</f>
+        <v>4096</v>
+      </c>
+      <c r="K9" s="4">
+        <f>C9-H9/G9</f>
+        <v>-97.2</v>
+      </c>
+      <c r="L9" s="12">
+        <f>H9/G9+K9</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <f>(D9-K9)*G9</f>
+        <v>4034.1351999999993</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="0"/>
+        <v>50.085200000000064</v>
+      </c>
+      <c r="O9" s="1">
+        <f>M9-N9</f>
+        <v>3984.0499999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>63.5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>89</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-89</v>
+      </c>
+      <c r="F10" s="2">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-22.765999999999998</v>
+      </c>
+      <c r="H10" s="1">
+        <f>(B10-F10)*G10</f>
+        <v>2124.0678000000003</v>
+      </c>
+      <c r="I10" s="1">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1">
+        <f>2^I10</f>
+        <v>4096</v>
+      </c>
+      <c r="K10" s="4">
+        <f>C10-H10/G10</f>
+        <v>93.300000000000026</v>
+      </c>
+      <c r="L10" s="12">
+        <f>H10/G10+K10</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <f>(D10-K10)*G10</f>
+        <v>97.893800000000581</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="0"/>
+        <v>4150.2417999999998</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>-4052.347999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10">
+        <v>189</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>15</v>
+      </c>
+      <c r="E11" s="15">
+        <v>-170</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-145.5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>11.375</v>
+      </c>
+      <c r="H11" s="1">
+        <f>(B11-F11)*G11</f>
+        <v>3804.9375</v>
+      </c>
+      <c r="I11" s="1">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1">
+        <f>2^I11</f>
+        <v>4096</v>
+      </c>
+      <c r="K11" s="4">
+        <f>C11-H11/G11</f>
+        <v>-334.5</v>
+      </c>
+      <c r="L11" s="12">
+        <f>H11/G11+K11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <f>(D11-K11)*G11</f>
+        <v>3975.5625</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>1871.1875</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>2104.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>98</v>
+      </c>
+      <c r="E12" s="15">
+        <v>-108</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-192</v>
+      </c>
+      <c r="G12" s="1">
+        <v>11.375</v>
+      </c>
+      <c r="H12" s="1">
+        <f>(B12-F12)*G12</f>
+        <v>2184</v>
+      </c>
+      <c r="I12" s="1">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1">
+        <f>2^I12</f>
+        <v>4096</v>
+      </c>
+      <c r="K12" s="4">
+        <f>C12-H12/G12</f>
+        <v>-192</v>
+      </c>
+      <c r="L12" s="12">
+        <f>H12/G12+K12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <f>(D12-K12)*G12</f>
+        <v>3298.75</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="0"/>
+        <v>955.5</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="1"/>
+        <v>2343.25</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <f>175*G9</f>
+        <v>3984.0499999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f>145+27</f>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/content/doc/смещения датчиков.xlsx
+++ b/content/doc/смещения датчиков.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SOURCETREE\OMEGA\ROBOTICS\avatar\omega-avatar-rev.1\content\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A23ADB3-C421-4025-B993-3BA7B07C9432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-26925" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>grab-8</t>
   </si>
@@ -83,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,11 +488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A4:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,26 +571,26 @@
         <v>-3.7250000000000001</v>
       </c>
       <c r="H6" s="1">
-        <f>(B6-F6)*G6</f>
+        <f t="shared" ref="H6:H12" si="0">(B6-F6)*G6</f>
         <v>2891.0097500000002</v>
       </c>
       <c r="I6" s="1">
         <v>12</v>
       </c>
       <c r="J6" s="1">
-        <f>2^I6</f>
+        <f t="shared" ref="J6:J12" si="1">2^I6</f>
         <v>4096</v>
       </c>
       <c r="K6" s="4">
-        <f>C6-H6/G6</f>
+        <f t="shared" ref="K6:K12" si="2">C6-H6/G6</f>
         <v>777.11</v>
       </c>
       <c r="L6" s="12">
-        <f>H6/G6+K6</f>
+        <f t="shared" ref="L6:L12" si="3">H6/G6+K6</f>
         <v>1</v>
       </c>
       <c r="M6" s="1">
-        <f>(D6-K6)*G6</f>
+        <f t="shared" ref="M6:M12" si="4">(D6-K6)*G6</f>
         <v>1944.8597500000001</v>
       </c>
       <c r="N6" s="1">
@@ -615,34 +625,34 @@
         <v>-3.7250000000000001</v>
       </c>
       <c r="H7" s="1">
-        <f>(B7-F7)*G7</f>
+        <f t="shared" si="0"/>
         <v>3570.0027500000001</v>
       </c>
       <c r="I7" s="1">
         <v>12</v>
       </c>
       <c r="J7" s="1">
-        <f>2^I7</f>
+        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
       <c r="K7" s="4">
-        <f>C7-H7/G7</f>
+        <f t="shared" si="2"/>
         <v>959.39</v>
       </c>
       <c r="L7" s="12">
-        <f>H7/G7+K7</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M7" s="1">
-        <f>(D7-K7)*G7</f>
+        <f t="shared" si="4"/>
         <v>2623.85275</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N12" si="0">(E7-K7)*G7</f>
+        <f t="shared" ref="N7:N12" si="5">(E7-K7)*G7</f>
         <v>3573.72775</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" ref="O7:O12" si="1">M7-N7</f>
+        <f t="shared" ref="O7:O12" si="6">M7-N7</f>
         <v>-949.875</v>
       </c>
     </row>
@@ -657,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E8" s="3">
-        <v>-90</v>
+        <v>-130</v>
       </c>
       <c r="F8" s="2">
         <v>180</v>
@@ -669,35 +679,35 @@
         <v>-11.375</v>
       </c>
       <c r="H8" s="1">
-        <f>(B8-F8)*G8</f>
+        <f t="shared" si="0"/>
         <v>2526.9562500000002</v>
       </c>
       <c r="I8" s="1">
         <v>12</v>
       </c>
       <c r="J8" s="1">
-        <f>2^I8</f>
+        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
       <c r="K8" s="4">
-        <f>C8-H8/G8</f>
+        <f t="shared" si="2"/>
         <v>222.15</v>
       </c>
       <c r="L8" s="12">
-        <f>H8/G8+K8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f>(D8-K8)*G8</f>
-        <v>1503.20625</v>
+        <f t="shared" si="4"/>
+        <v>1048.20625</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="0"/>
-        <v>3550.7062499999997</v>
+        <f t="shared" si="5"/>
+        <v>4005.7062499999997</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="1"/>
-        <v>-2047.4999999999998</v>
+        <f t="shared" si="6"/>
+        <v>-2957.5</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -723,30 +733,30 @@
         <v>22.765999999999998</v>
       </c>
       <c r="H9" s="1">
-        <f>(B9-F9)*G9</f>
+        <f t="shared" si="0"/>
         <v>2212.8552</v>
       </c>
       <c r="I9" s="1">
         <v>12</v>
       </c>
       <c r="J9" s="1">
-        <f>2^I9</f>
+        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
       <c r="K9" s="4">
-        <f>C9-H9/G9</f>
+        <f t="shared" si="2"/>
         <v>-97.2</v>
       </c>
       <c r="L9" s="12">
-        <f>H9/G9+K9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <f>(D9-K9)*G9</f>
+        <f t="shared" si="4"/>
         <v>4034.1351999999993</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>50.085200000000064</v>
       </c>
       <c r="O9" s="1">
@@ -777,34 +787,34 @@
         <v>-22.765999999999998</v>
       </c>
       <c r="H10" s="1">
-        <f>(B10-F10)*G10</f>
+        <f t="shared" si="0"/>
         <v>2124.0678000000003</v>
       </c>
       <c r="I10" s="1">
         <v>12</v>
       </c>
       <c r="J10" s="1">
-        <f>2^I10</f>
+        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
       <c r="K10" s="4">
-        <f>C10-H10/G10</f>
+        <f t="shared" si="2"/>
         <v>93.300000000000026</v>
       </c>
       <c r="L10" s="12">
-        <f>H10/G10+K10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <f>(D10-K10)*G10</f>
+        <f t="shared" si="4"/>
         <v>97.893800000000581</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4150.2417999999998</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-4052.347999999999</v>
       </c>
     </row>
@@ -831,34 +841,34 @@
         <v>11.375</v>
       </c>
       <c r="H11" s="1">
-        <f>(B11-F11)*G11</f>
+        <f t="shared" si="0"/>
         <v>3804.9375</v>
       </c>
       <c r="I11" s="1">
         <v>12</v>
       </c>
       <c r="J11" s="1">
-        <f>2^I11</f>
+        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
       <c r="K11" s="4">
-        <f>C11-H11/G11</f>
+        <f t="shared" si="2"/>
         <v>-334.5</v>
       </c>
       <c r="L11" s="12">
-        <f>H11/G11+K11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <f>(D11-K11)*G11</f>
+        <f t="shared" si="4"/>
         <v>3975.5625</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1871.1875</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2104.375</v>
       </c>
     </row>
@@ -885,47 +895,413 @@
         <v>11.375</v>
       </c>
       <c r="H12" s="1">
-        <f>(B12-F12)*G12</f>
+        <f t="shared" si="0"/>
         <v>2184</v>
       </c>
       <c r="I12" s="1">
         <v>12</v>
       </c>
       <c r="J12" s="1">
-        <f>2^I12</f>
+        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
       <c r="K12" s="4">
-        <f>C12-H12/G12</f>
+        <f t="shared" si="2"/>
         <v>-192</v>
       </c>
       <c r="L12" s="12">
-        <f>H12/G12+K12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <f>(D12-K12)*G12</f>
+        <f t="shared" si="4"/>
         <v>3298.75</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>955.5</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2343.25</v>
       </c>
     </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="N18">
-        <f>175*G9</f>
-        <v>3984.0499999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E21">
-        <f>145+27</f>
-        <v>172</v>
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>192.94</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>255</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>777.1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-3.7250000000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17:H23" si="7">(B17-F17)*G17</f>
+        <v>2175.9960000000005</v>
+      </c>
+      <c r="I17" s="1">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" ref="J17:J23" si="8">2^I17</f>
+        <v>4096</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" ref="K17:K23" si="9">C17-H17/G17</f>
+        <v>585.16000000000008</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" ref="L17:L23" si="10">H17/G17+K17</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <f>(D17-K17)*G17</f>
+        <v>1229.8460000000002</v>
+      </c>
+      <c r="N17" s="1">
+        <f>(E17-K17)*G17</f>
+        <v>2179.7210000000005</v>
+      </c>
+      <c r="O17" s="1">
+        <f>M17-N17</f>
+        <v>-949.87500000000023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2">
+        <v>346.51</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>255</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>959.4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-3.7250000000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="7"/>
+        <v>2283.0152499999999</v>
+      </c>
+      <c r="I18" s="1">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="8"/>
+        <v>4096</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="9"/>
+        <v>613.89</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" ref="M17:M23" si="11">(D18-K18)*G18</f>
+        <v>1336.8652500000001</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" ref="N18:N23" si="12">(E18-K18)*G18</f>
+        <v>2286.7402499999998</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ref="O18:O23" si="13">M18-N18</f>
+        <v>-949.87499999999977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-4.26</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>90</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-90</v>
+      </c>
+      <c r="F19" s="2">
+        <v>222.2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-11.375</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="7"/>
+        <v>2575.9824999999996</v>
+      </c>
+      <c r="I19" s="1">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="8"/>
+        <v>4096</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="9"/>
+        <v>226.45999999999998</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="11"/>
+        <v>1552.2324999999998</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="12"/>
+        <v>3599.7324999999996</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="13"/>
+        <v>-2047.4999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>80</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-95</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-97.2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>22.765999999999998</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="7"/>
+        <v>2212.8552</v>
+      </c>
+      <c r="I20" s="1">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="8"/>
+        <v>4096</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="9"/>
+        <v>-97.2</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="11"/>
+        <v>4034.1351999999993</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="12"/>
+        <v>50.085200000000064</v>
+      </c>
+      <c r="O20" s="1">
+        <f>M20-N20</f>
+        <v>3984.0499999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>89</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-89</v>
+      </c>
+      <c r="F21" s="2">
+        <v>89.6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-22.765999999999998</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="7"/>
+        <v>2039.8335999999997</v>
+      </c>
+      <c r="I21" s="1">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="8"/>
+        <v>4096</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="9"/>
+        <v>89.6</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="11"/>
+        <v>13.65959999999987</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="12"/>
+        <v>4066.0075999999995</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" ref="O21:O23" si="14">M21-N21</f>
+        <v>-4052.3479999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="10">
+        <v>-18.149999999999999</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="15">
+        <v>15</v>
+      </c>
+      <c r="E22" s="15">
+        <v>-170</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-334.5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>11.375</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="7"/>
+        <v>3598.4812500000003</v>
+      </c>
+      <c r="I22" s="1">
+        <v>12</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="8"/>
+        <v>4096</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="9"/>
+        <v>-316.35000000000002</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="11"/>
+        <v>3769.1062500000003</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="12"/>
+        <v>1664.7312500000003</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="14"/>
+        <v>2104.375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="10">
+        <v>14.07</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="15">
+        <v>98</v>
+      </c>
+      <c r="E23" s="15">
+        <v>-108</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-192</v>
+      </c>
+      <c r="G23" s="1">
+        <v>11.375</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="7"/>
+        <v>2344.0462499999999</v>
+      </c>
+      <c r="I23" s="1">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="8"/>
+        <v>4096</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="9"/>
+        <v>-206.07</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="11"/>
+        <v>3458.7962499999999</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="12"/>
+        <v>1115.5462499999999</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="14"/>
+        <v>2343.25</v>
       </c>
     </row>
   </sheetData>

--- a/content/doc/смещения датчиков.xlsx
+++ b/content/doc/смещения датчиков.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SOURCETREE\OMEGA\ROBOTICS\avatar\omega-avatar-rev.1\content\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A23ADB3-C421-4025-B993-3BA7B07C9432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4556A483-8CBC-4D8F-B8FC-6BC5222ECC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26925" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>grab-8</t>
   </si>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:O23"/>
+  <dimension ref="A4:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" ref="M17:M23" si="11">(D18-K18)*G18</f>
+        <f t="shared" ref="M18:M23" si="11">(D18-K18)*G18</f>
         <v>1336.8652500000001</v>
       </c>
       <c r="N18" s="1">
@@ -1030,7 +1030,7 @@
         <v>2286.7402499999998</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" ref="O18:O23" si="13">M18-N18</f>
+        <f t="shared" ref="O18:O19" si="13">M18-N18</f>
         <v>-949.87499999999977</v>
       </c>
     </row>
@@ -1039,26 +1039,26 @@
         <v>13</v>
       </c>
       <c r="B19" s="2">
-        <v>-4.26</v>
+        <v>-174.94</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E19" s="3">
-        <v>-90</v>
+        <v>-180</v>
       </c>
       <c r="F19" s="2">
-        <v>222.2</v>
+        <v>-225.4</v>
       </c>
       <c r="G19" s="1">
-        <v>-11.375</v>
+        <v>11.375</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="7"/>
-        <v>2575.9824999999996</v>
+        <f>(B19-F19)*G19</f>
+        <v>573.98250000000007</v>
       </c>
       <c r="I19" s="1">
         <v>12</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="K19" s="4">
         <f t="shared" si="9"/>
-        <v>226.45999999999998</v>
+        <v>-50.460000000000008</v>
       </c>
       <c r="L19" s="12">
         <f t="shared" si="10"/>
@@ -1077,15 +1077,15 @@
       </c>
       <c r="M19" s="1">
         <f t="shared" si="11"/>
-        <v>1552.2324999999998</v>
+        <v>2052.7325000000001</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="12"/>
-        <v>3599.7324999999996</v>
+        <v>-1473.5174999999999</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="13"/>
-        <v>-2047.4999999999998</v>
+        <v>3526.25</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1147,26 +1147,26 @@
         <v>15</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>-2.06</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E21" s="3">
-        <v>-89</v>
+        <v>-87</v>
       </c>
       <c r="F21" s="2">
-        <v>89.6</v>
+        <v>-90</v>
       </c>
       <c r="G21" s="1">
-        <v>-22.765999999999998</v>
+        <v>22.765999999999998</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="7"/>
-        <v>2039.8335999999997</v>
+        <f>(B21-F21)*G21</f>
+        <v>2002.0420399999998</v>
       </c>
       <c r="I21" s="1">
         <v>12</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="K21" s="4">
         <f t="shared" si="9"/>
-        <v>89.6</v>
+        <v>-87.94</v>
       </c>
       <c r="L21" s="12">
         <f t="shared" si="10"/>
@@ -1185,15 +1185,15 @@
       </c>
       <c r="M21" s="1">
         <f t="shared" si="11"/>
-        <v>13.65959999999987</v>
+        <v>4073.7480399999995</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="12"/>
-        <v>4066.0075999999995</v>
+        <v>21.400039999999947</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" ref="O21:O23" si="14">M21-N21</f>
-        <v>-4052.3479999999995</v>
+        <v>4052.3479999999995</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1301,6 +1301,384 @@
       </c>
       <c r="O23" s="1">
         <f t="shared" si="14"/>
+        <v>2343.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>255</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>777.1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-3.7250000000000001</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" ref="H27:H28" si="15">(B27-F27)*G27</f>
+        <v>2894.6975000000002</v>
+      </c>
+      <c r="I27" s="1">
+        <v>12</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" ref="J27:J33" si="16">2^I27</f>
+        <v>4096</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" ref="K27:K33" si="17">C27-H27/G27</f>
+        <v>780.1</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" ref="L27:L33" si="18">H27/G27+K27</f>
+        <v>3</v>
+      </c>
+      <c r="M27" s="1">
+        <f>(D27-K27)*G27</f>
+        <v>1955.9975000000002</v>
+      </c>
+      <c r="N27" s="1">
+        <f>(E27-K27)*G27</f>
+        <v>2905.8724999999999</v>
+      </c>
+      <c r="O27" s="1">
+        <f>M27-N27</f>
+        <v>-949.87499999999977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2">
+        <v>346.51</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>255</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>959.4</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-3.7250000000000001</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="15"/>
+        <v>2283.0152499999999</v>
+      </c>
+      <c r="I28" s="1">
+        <v>12</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="16"/>
+        <v>4096</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="17"/>
+        <v>613.89</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" ref="M28:M33" si="19">(D28-K28)*G28</f>
+        <v>1336.8652500000001</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" ref="N28:N33" si="20">(E28-K28)*G28</f>
+        <v>2286.7402499999998</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" ref="O28:O29" si="21">M28-N28</f>
+        <v>-949.87499999999977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45.41</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>130</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-180</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-180</v>
+      </c>
+      <c r="G29" s="1">
+        <v>11.375</v>
+      </c>
+      <c r="H29" s="1">
+        <f>(B29-F29)*G29</f>
+        <v>2564.0387500000002</v>
+      </c>
+      <c r="I29" s="1">
+        <v>12</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="16"/>
+        <v>4096</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="17"/>
+        <v>-225.41000000000003</v>
+      </c>
+      <c r="L29" s="12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="19"/>
+        <v>4042.7887500000002</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="20"/>
+        <v>516.53875000000028</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="21"/>
+        <v>3526.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-2.77</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>89</v>
+      </c>
+      <c r="E30" s="3">
+        <v>-87</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-90</v>
+      </c>
+      <c r="G30" s="1">
+        <v>22.765999999999998</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" ref="H30" si="22">(B30-F30)*G30</f>
+        <v>1985.8781799999999</v>
+      </c>
+      <c r="I30" s="1">
+        <v>12</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="16"/>
+        <v>4096</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="17"/>
+        <v>-87.23</v>
+      </c>
+      <c r="L30" s="12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="19"/>
+        <v>4012.0521800000001</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="20"/>
+        <v>5.2361800000000898</v>
+      </c>
+      <c r="O30" s="1">
+        <f>M30-N30</f>
+        <v>4006.8160000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>89</v>
+      </c>
+      <c r="E31" s="3">
+        <v>-89</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-90</v>
+      </c>
+      <c r="G31" s="1">
+        <v>22.765999999999998</v>
+      </c>
+      <c r="H31" s="1">
+        <f>(B31-F31)*G31</f>
+        <v>2048.94</v>
+      </c>
+      <c r="I31" s="1">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="16"/>
+        <v>4096</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="17"/>
+        <v>-90.000000000000014</v>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="19"/>
+        <v>4075.1139999999996</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="20"/>
+        <v>22.766000000000322</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" ref="O31:O33" si="23">M31-N31</f>
+        <v>4052.347999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="10">
+        <v>-1.85</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0</v>
+      </c>
+      <c r="D32" s="15">
+        <v>15</v>
+      </c>
+      <c r="E32" s="15">
+        <v>-170</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-329.5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>11.375</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" ref="H32:H33" si="24">(B32-F32)*G32</f>
+        <v>3727.0187499999997</v>
+      </c>
+      <c r="I32" s="1">
+        <v>12</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="16"/>
+        <v>4096</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="17"/>
+        <v>-327.64999999999998</v>
+      </c>
+      <c r="L32" s="12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="19"/>
+        <v>3897.6437499999997</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="20"/>
+        <v>1793.2687499999997</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="23"/>
+        <v>2104.375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="10">
+        <v>14.07</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0</v>
+      </c>
+      <c r="D33" s="15">
+        <v>98</v>
+      </c>
+      <c r="E33" s="15">
+        <v>-108</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-192</v>
+      </c>
+      <c r="G33" s="1">
+        <v>11.375</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="24"/>
+        <v>2344.0462499999999</v>
+      </c>
+      <c r="I33" s="1">
+        <v>12</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="16"/>
+        <v>4096</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="17"/>
+        <v>-206.07</v>
+      </c>
+      <c r="L33" s="12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="19"/>
+        <v>3458.7962499999999</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="20"/>
+        <v>1115.5462499999999</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="23"/>
         <v>2343.25</v>
       </c>
     </row>
